--- a/excel/TC1.xlsx
+++ b/excel/TC1.xlsx
@@ -63,13 +63,13 @@
     <t>quit</t>
   </si>
   <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
     <t>http://192.168.1.122:3000/start/home</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>navegate</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -396,10 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="b">
         <v>1</v>
